--- a/branches/master/StructureDefinition-hiv-care-next-visit.xlsx
+++ b/branches/master/StructureDefinition-hiv-care-next-visit.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/hiv-care-next-visit</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-care-next-visit</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
